--- a/docker/test/divider time.xlsx
+++ b/docker/test/divider time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORB User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A047E-DBAF-47BC-9B39-C7C28AE738A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E051122E-0660-4E66-B461-305D39D6F001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="9315" xr2:uid="{88D20E1D-64B1-4EDD-9842-30A11C4F2D78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>страниц</t>
   </si>
@@ -38,13 +38,23 @@
   <si>
     <t>стр/сек</t>
   </si>
+  <si>
+    <t>мин</t>
+  </si>
+  <si>
+    <t>стр</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -99,11 +109,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,19 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598C58A6-7A4E-4374-8A1D-722B04922581}">
-  <dimension ref="A4:K28"/>
+  <dimension ref="A4:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,402 +467,469 @@
         <v>3</v>
       </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
       <c r="B5" s="2">
-        <v>2143</v>
+        <v>383</v>
       </c>
       <c r="C5" s="2">
-        <v>1031</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>840</v>
+      <c r="F5" s="6">
+        <v>90</v>
       </c>
       <c r="G5" s="4">
         <f>B5/F5</f>
-        <v>2.551190476190476</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5">
-        <v>30000</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J6" si="0">I5/G5/60</f>
-        <v>195.98693420438639</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K6" si="1">J5/60</f>
-        <v>3.2664489034064399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>10423</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5050</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1">
-        <v>4217</v>
+        <v>4.2555555555555555</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H13" si="0">G5/$G$5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K13" si="1">J5/G5</f>
+        <v>9399.4778067885127</v>
+      </c>
+      <c r="L5" s="8">
+        <f>K5/60</f>
+        <v>156.65796344647521</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5:M13" si="2">L5/60</f>
+        <v>2.6109660574412534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B13" si="3">$B$5*A6</f>
+        <v>766</v>
+      </c>
+      <c r="C6" s="2">
+        <f>$C$5*A6</f>
+        <v>398</v>
+      </c>
+      <c r="E6" s="8">
+        <f>F6/$F$5</f>
+        <v>1.0888888888888888</v>
+      </c>
+      <c r="F6" s="7">
+        <v>98</v>
       </c>
       <c r="G6" s="4">
-        <f>B6/F6</f>
-        <v>2.4716623191842544</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6">
-        <v>30000</v>
-      </c>
-      <c r="J6">
+        <f t="shared" ref="G6:G10" si="4">B6/F6</f>
+        <v>7.8163265306122449</v>
+      </c>
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>202.29300585244169</v>
-      </c>
-      <c r="K6">
+        <v>1.8367346938775511</v>
+      </c>
+      <c r="I6" s="10">
+        <f>(H6-H5)/H5</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="J6" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>3.3715500975406951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5117.4934725848561</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:L13" si="5">K6/60</f>
+        <v>85.291557876414274</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4215259646069045</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>383</v>
+        <f t="shared" si="3"/>
+        <v>1532</v>
       </c>
       <c r="C7" s="2">
-        <v>199</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7">
-        <v>90</v>
+        <f t="shared" ref="C7:C9" si="6">$C$5*A7</f>
+        <v>796</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E13" si="7">F7/$F$5</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F7" s="6">
+        <v>120</v>
       </c>
       <c r="G7" s="4">
-        <f>B7/F7</f>
-        <v>4.2555555555555555</v>
-      </c>
-      <c r="I7">
-        <v>30000</v>
-      </c>
-      <c r="J7">
-        <f>I7/G7/60</f>
-        <v>117.49347258485639</v>
-      </c>
-      <c r="K7">
-        <f>J7/60</f>
-        <v>1.95822454308094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>12.766666666666667</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I13" si="8">(H7-H6)/H6</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J7" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="1"/>
+        <v>3133.1592689295039</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="5"/>
+        <v>52.219321148825067</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8703220191470844</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>$B$7*A8</f>
-        <v>766</v>
+        <f t="shared" si="3"/>
+        <v>2298</v>
       </c>
       <c r="C8" s="2">
-        <f>$C$7*A8</f>
-        <v>398</v>
-      </c>
-      <c r="E8" s="5">
-        <f>F8/F7</f>
-        <v>1.0888888888888888</v>
-      </c>
-      <c r="F8" s="8">
-        <v>98</v>
+        <f t="shared" si="6"/>
+        <v>1194</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="7"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="F8" s="7">
+        <v>165</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:G12" si="2">B8/F8</f>
-        <v>7.8163265306122449</v>
-      </c>
-      <c r="I8">
-        <v>30000</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J15" si="3">I8/G8/60</f>
-        <v>63.968668407310702</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K15" si="4">J8/60</f>
-        <v>1.0661444734551784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>13.927272727272728</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="8"/>
+        <v>9.0909090909090981E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="1"/>
+        <v>2872.0626631853784</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>47.867711053089643</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.79779518421816076</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f>$B$7*A9</f>
-        <v>1532</v>
+        <f t="shared" si="3"/>
+        <v>3064</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:C11" si="5">$C$7*A9</f>
-        <v>796</v>
-      </c>
-      <c r="E9" s="5">
-        <f>F9/F7</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>1592</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8">
+        <f t="shared" si="7"/>
+        <v>2.4444444444444446</v>
       </c>
       <c r="F9" s="7">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="4"/>
+        <v>13.927272727272728</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="1"/>
+        <v>2872.0626631853784</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="5"/>
+        <v>47.867711053089643</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="2"/>
-        <v>12.766666666666667</v>
-      </c>
-      <c r="I9">
-        <v>30000</v>
-      </c>
-      <c r="J9">
+        <v>0.79779518421816076</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
-        <v>39.164490861618795</v>
-      </c>
-      <c r="K9">
+        <v>3830</v>
+      </c>
+      <c r="C10" s="2">
+        <f>$C$5*A10</f>
+        <v>1990</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="7"/>
+        <v>2.9444444444444446</v>
+      </c>
+      <c r="F10" s="7">
+        <v>265</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>0.65274151436031325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <f>$B$7*A10</f>
-        <v>2298</v>
-      </c>
-      <c r="C10" s="2">
+        <v>14.452830188679245</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3962264150943398</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="8"/>
+        <v>3.7735849056603751E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>2767.6240208877284</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" si="5"/>
-        <v>1194</v>
-      </c>
-      <c r="E10" s="5">
-        <f>F10/F8</f>
-        <v>1.6836734693877551</v>
-      </c>
-      <c r="F10" s="8">
-        <v>165</v>
-      </c>
-      <c r="G10" s="4">
+        <v>46.127067014795472</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" si="2"/>
-        <v>13.927272727272728</v>
-      </c>
-      <c r="I10">
-        <v>30000</v>
-      </c>
-      <c r="J10">
-        <f>I10/G10/60</f>
-        <v>35.900783289817234</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.59834638816362051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.76878445024659114</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <f>$B$7*A11</f>
-        <v>3064</v>
+        <f t="shared" si="3"/>
+        <v>4596</v>
       </c>
       <c r="C11" s="2">
+        <f>$C$5*A11</f>
+        <v>2388</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F11" s="7">
+        <v>300</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11:G13" si="9">B11/F11</f>
+        <v>15.32</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="8"/>
+        <v>5.9999999999999984E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="1"/>
+        <v>2610.9660574412533</v>
+      </c>
+      <c r="L11" s="8">
         <f t="shared" si="5"/>
-        <v>1592</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <f>F11/F7</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="F11" s="8">
-        <v>220</v>
-      </c>
-      <c r="G11" s="4">
+        <v>43.516100957354219</v>
+      </c>
+      <c r="M11" s="8">
         <f t="shared" si="2"/>
-        <v>13.927272727272728</v>
-      </c>
-      <c r="I11">
-        <v>30000</v>
-      </c>
-      <c r="J11">
+        <v>0.725268349289237</v>
+      </c>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
         <f t="shared" si="3"/>
-        <v>35.900783289817234</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.59834638816362051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f>$B$7*A12</f>
-        <v>3830</v>
+        <v>5362</v>
       </c>
       <c r="C12" s="2">
-        <f>$C$7*A12</f>
-        <v>1990</v>
-      </c>
-      <c r="E12" s="5">
-        <f>F12/F8</f>
-        <v>2.704081632653061</v>
-      </c>
-      <c r="F12" s="8">
-        <v>265</v>
+        <f>$C$5*A12</f>
+        <v>2786</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="7"/>
+        <v>3.9444444444444446</v>
+      </c>
+      <c r="F12" s="7">
+        <v>355</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="9"/>
+        <v>15.104225352112676</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5492957746478875</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="8"/>
+        <v>-1.4084507042253502E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="1"/>
+        <v>2648.265572547557</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="5"/>
+        <v>44.137759542459285</v>
+      </c>
+      <c r="M12" s="8">
         <f t="shared" si="2"/>
-        <v>14.452830188679245</v>
-      </c>
-      <c r="I12">
-        <v>30000</v>
-      </c>
-      <c r="J12">
+        <v>0.73562932570765471</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
         <f t="shared" si="3"/>
-        <v>34.595300261096604</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.57658833768494344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <f>$B$7*A13</f>
-        <v>4596</v>
+        <v>6128</v>
       </c>
       <c r="C13" s="2">
-        <f>$C$7*A13</f>
-        <v>2388</v>
-      </c>
-      <c r="E13" s="5">
-        <f>F13/F9</f>
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>300</v>
+        <f>$C$5*A13</f>
+        <v>3184</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="7"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F13" s="7">
+        <v>400</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" ref="G13:G15" si="6">B13/F13</f>
+        <f t="shared" si="9"/>
         <v>15.32</v>
       </c>
-      <c r="I13">
-        <v>30000</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>32.637075718015666</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0.54395126196692778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <f>$B$7*A14</f>
-        <v>5362</v>
-      </c>
-      <c r="C14" s="2">
-        <f>$C$7*A14</f>
-        <v>2786</v>
-      </c>
-      <c r="E14" s="5">
-        <f>F14/F10</f>
-        <v>2.1515151515151514</v>
-      </c>
-      <c r="F14" s="8">
-        <v>355</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="6"/>
-        <v>15.104225352112676</v>
-      </c>
-      <c r="I14">
-        <v>30000</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>33.103319656844455</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.55172199428074087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>$B$7*A15</f>
-        <v>6128</v>
-      </c>
-      <c r="C15" s="2">
-        <f>$C$7*A15</f>
-        <v>3184</v>
-      </c>
-      <c r="E15" s="5">
-        <f>F15/F11</f>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="F15" s="8">
-        <v>400</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="6"/>
-        <v>15.32</v>
-      </c>
-      <c r="I15">
-        <v>30000</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>32.637075718015666</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.54395126196692778</v>
-      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714266E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>40000</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="1"/>
+        <v>2610.9660574412533</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="5"/>
+        <v>43.516100957354219</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.725268349289237</v>
+      </c>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>